--- a/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>007777</t>
-  </si>
-  <si>
-    <t>中邮研究精选混合</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>78.46</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>0.2066</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
@@ -694,12 +694,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -709,14 +730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -725,13 +768,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,1083 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>1.43</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -549,6 +566,1466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>517330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1666,7 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2064,7 +3541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2196,7 +3673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600481-双良节能.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>8.59</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>1.43</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -566,6 +583,1582 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>517330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016858</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2025,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3143,7 +4736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3541,7 +5134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3673,7 +5266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
